--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AAB004-7160-409F-9914-CBDCB57A48E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC7052-288E-478F-9570-A9409B1936F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Wednesday,October, 17, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday, October, 31, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday, October, 24, 2018</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +678,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>43390</v>
+        <v>43404</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -951,11 +957,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1060,11 +1076,21 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
@@ -1148,15 +1174,15 @@
       </c>
       <c r="C42" s="5">
         <f>SUM(C5:C38)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" s="5">
         <f>SUM(D5:D38)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E42" s="5">
         <f>SUM(E5:E38)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC7052-288E-478F-9570-A9409B1936F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAB78E-C12D-4994-B4CD-C341BEDE9406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Wednesday, October, 24, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday November, 7, 2018</t>
+  </si>
+  <si>
+    <t>Monday, November, 12, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday, November, 14, 2018</t>
+  </si>
+  <si>
+    <t>Monday, November, 19, 2018</t>
+  </si>
+  <si>
+    <t>Monday, November, 26, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday, November, 28, 2018</t>
   </si>
 </sst>
 </file>
@@ -234,15 +252,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,11 +304,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -314,6 +351,15 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +724,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>43404</v>
+        <v>43423</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -974,158 +1020,229 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
@@ -1150,54 +1267,89 @@
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="5">
-        <f>C41</f>
+      <c r="D46" s="5">
+        <f>C46</f>
         <v>0</v>
       </c>
-      <c r="E41" s="5">
-        <f>D41</f>
+      <c r="E46" s="5">
+        <f>D46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5">
-        <f>SUM(C5:C38)</f>
-        <v>18</v>
-      </c>
-      <c r="D42" s="5">
-        <f>SUM(D5:D38)</f>
-        <v>18</v>
-      </c>
-      <c r="E42" s="5">
-        <f>SUM(E5:E38)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="10" t="s">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <f>SUM(C5:C43)</f>
+        <v>24</v>
+      </c>
+      <c r="D47" s="5">
+        <f>SUM(D5:D43)</f>
+        <v>24</v>
+      </c>
+      <c r="E47" s="5">
+        <f>SUM(E5:E43)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="11" t="e">
-        <f>C42/C41</f>
+      <c r="C48" s="11" t="e">
+        <f>C47/C46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="11" t="e">
-        <f t="shared" ref="D43:E43" si="0">D42/D41</f>
+      <c r="D48" s="11" t="e">
+        <f t="shared" ref="D48:E48" si="0">D47/D46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="11" t="e">
+      <c r="E48" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAB78E-C12D-4994-B4CD-C341BEDE9406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0FE4FC-C0AE-4FF3-A957-94B20E7ACCC8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -700,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +725,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0FE4FC-C0AE-4FF3-A957-94B20E7ACCC8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1136B92-6873-463A-B921-713AB6AE2B2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>Wednesday, November, 28, 2018</t>
+  </si>
+  <si>
+    <t>Monday, December, 3, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday December, 5, 2018</t>
+  </si>
+  <si>
+    <t>Wednesday, December, 5, 2018</t>
   </si>
 </sst>
 </file>
@@ -699,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +734,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>43430</v>
+        <v>43432</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1129,9 +1138,15 @@
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1140,9 +1155,15 @@
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1151,72 +1172,80 @@
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -1233,24 +1262,34 @@
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
@@ -1303,56 +1342,67 @@
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="5">
-        <f>C46</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="5">
-        <f>D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="C47" s="5">
-        <f>SUM(C5:C43)</f>
+        <f>SUM(C5:C31)</f>
         <v>24</v>
       </c>
       <c r="D47" s="5">
-        <f>SUM(D5:D43)</f>
+        <f>C47</f>
         <v>24</v>
       </c>
       <c r="E47" s="5">
-        <f>SUM(E5:E43)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="10" t="s">
+        <f>D47</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <f>SUM(C5:C44)</f>
+        <v>27</v>
+      </c>
+      <c r="D48" s="5">
+        <f>SUM(D5:D44)</f>
+        <v>27</v>
+      </c>
+      <c r="E48" s="5">
+        <f>SUM(E5:E44)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="11" t="e">
-        <f>C47/C46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="11" t="e">
-        <f t="shared" ref="D48:E48" si="0">D47/D46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="11" t="e">
+      <c r="C49" s="11">
+        <f>C48/C47</f>
+        <v>1.125</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" ref="D49:E49" si="0">D48/D47</f>
+        <v>1.125</v>
+      </c>
+      <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1136B92-6873-463A-B921-713AB6AE2B2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A14ADC-7ADC-4CCE-A87B-36F0EC4CBBF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,9 +1189,15 @@
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1360,15 +1366,15 @@
       </c>
       <c r="C47" s="5">
         <f>SUM(C5:C31)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="5">
         <f>C47</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5">
         <f>D47</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1377,15 +1383,15 @@
       </c>
       <c r="C48" s="5">
         <f>SUM(C5:C44)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="5">
         <f>SUM(D5:D44)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5">
         <f>SUM(E5:E44)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1394,11 +1400,11 @@
       </c>
       <c r="C49" s="11">
         <f>C48/C47</f>
-        <v>1.125</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D49" s="11">
         <f t="shared" ref="D49:E49" si="0">D48/D47</f>
-        <v>1.125</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zas18\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A14ADC-7ADC-4CCE-A87B-36F0EC4CBBF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB81DB-43AF-4BF9-A9B6-DDFAB3FC5497}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>Wednesday, December, 5, 2018</t>
+  </si>
+  <si>
+    <t>Friday, January, 25, 2019</t>
+  </si>
+  <si>
+    <t>Monday, January, 28, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team </t>
+  </si>
+  <si>
+    <t>Wednesday, January, 30, 2019</t>
+  </si>
+  <si>
+    <t>Monday, February, 4, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, February, 6, 2019</t>
   </si>
 </sst>
 </file>
@@ -276,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,24 +332,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -361,15 +366,21 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +745,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>43432</v>
+        <v>43500</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1172,13 +1183,13 @@
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="17">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1189,13 +1200,13 @@
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="17">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1206,208 +1217,363 @@
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="C50" s="7">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="5">
-        <f>SUM(C5:C31)</f>
-        <v>25</v>
-      </c>
-      <c r="D47" s="5">
-        <f>C47</f>
-        <v>25</v>
-      </c>
-      <c r="E47" s="5">
-        <f>D47</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5">
-        <f>SUM(C5:C44)</f>
-        <v>28</v>
-      </c>
-      <c r="D48" s="5">
-        <f>SUM(D5:D44)</f>
-        <v>28</v>
-      </c>
-      <c r="E48" s="5">
-        <f>SUM(E5:E44)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="10" t="s">
+      <c r="C60" s="5">
+        <f>SUM(C5:C37)</f>
+        <v>32</v>
+      </c>
+      <c r="D60" s="5">
+        <f>C60</f>
+        <v>32</v>
+      </c>
+      <c r="E60" s="5">
+        <f>C60</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
+        <f>(SUM(C5:C37)+SUM(C48:C51))</f>
+        <v>35</v>
+      </c>
+      <c r="D61" s="5">
+        <f>(SUM(D5:D37)+SUM(D48:D51))</f>
+        <v>34</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" ref="D61:E61" si="0">(SUM(E5:E37)+SUM(E48:E51))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="11">
-        <f>C48/C47</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D49" s="11">
-        <f t="shared" ref="D49:E49" si="0">D48/D47</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E49" s="11">
-        <f t="shared" si="0"/>
+      <c r="C62" s="11">
+        <f>C61/C60</f>
+        <v>1.09375</v>
+      </c>
+      <c r="D62" s="11">
+        <f t="shared" ref="D62:E62" si="1">D61/D60</f>
+        <v>1.0625</v>
+      </c>
+      <c r="E62" s="11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zas18\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB81DB-43AF-4BF9-A9B6-DDFAB3FC5497}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75833AC1-AAD3-4C89-B17B-FA8C4000364A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,9 +1336,15 @@
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
@@ -1532,15 +1538,15 @@
       </c>
       <c r="C60" s="5">
         <f>SUM(C5:C37)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" s="5">
         <f>C60</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" s="5">
         <f>C60</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1549,15 +1555,15 @@
       </c>
       <c r="C61" s="5">
         <f>(SUM(C5:C37)+SUM(C48:C51))</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" s="5">
         <f>(SUM(D5:D37)+SUM(D48:D51))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" ref="D61:E61" si="0">(SUM(E5:E37)+SUM(E48:E51))</f>
-        <v>32</v>
+        <f t="shared" ref="E61" si="0">(SUM(E5:E37)+SUM(E48:E51))</f>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,11 +1572,11 @@
       </c>
       <c r="C62" s="11">
         <f>C61/C60</f>
-        <v>1.09375</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="D62" s="11">
         <f t="shared" ref="D62:E62" si="1">D61/D60</f>
-        <v>1.0625</v>
+        <v>1.0606060606060606</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75833AC1-AAD3-4C89-B17B-FA8C4000364A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64205D1-3550-4752-BEC3-7EF3B1321359}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="51">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>Wednesday, February, 6, 2019</t>
+  </si>
+  <si>
+    <t>Monday, February, 11, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, February, 13, 2019</t>
   </si>
 </sst>
 </file>
@@ -280,18 +286,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -300,21 +300,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -332,21 +317,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,27 +349,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,30 +720,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43500</v>
       </c>
       <c r="B2" t="s">
@@ -753,832 +752,853 @@
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
         <v>0</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="2">
         <f>SUM(C5:C37)</f>
         <v>33</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="2">
         <f>C60</f>
         <v>33</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="2">
         <f>C60</f>
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
         <f>(SUM(C5:C37)+SUM(C48:C51))</f>
         <v>36</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="2">
         <f>(SUM(D5:D37)+SUM(D48:D51))</f>
         <v>35</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="2">
         <f t="shared" ref="E61" si="0">(SUM(E5:E37)+SUM(E48:E51))</f>
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="10" t="s">
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="6">
         <f>C61/C60</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="6">
         <f t="shared" ref="D62:E62" si="1">D61/D60</f>
         <v>1.0606060606060606</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64205D1-3550-4752-BEC3-7EF3B1321359}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DD54B-2EEE-471A-BA50-7D7777D963AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3660" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -218,6 +217,18 @@
   </si>
   <si>
     <t>Wednesday, February, 13, 2019</t>
+  </si>
+  <si>
+    <t>Monday, February, 18, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, February, 20, 2019</t>
+  </si>
+  <si>
+    <t>General project work</t>
+  </si>
+  <si>
+    <t>Sunday, February, 24, 2019</t>
   </si>
 </sst>
 </file>
@@ -334,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -355,29 +366,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,12 +717,12 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
@@ -768,789 +764,813 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="12">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12">
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="A52"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="A53"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="A54"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="A55"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="A56"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="A57"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="A58"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DD54B-2EEE-471A-BA50-7D7777D963AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D2A83-200B-4CE5-A80C-BF3027499522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3660" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -229,6 +230,9 @@
   </si>
   <si>
     <t>Sunday, February, 24, 2019</t>
+  </si>
+  <si>
+    <t>Monday, February, 25, 2019</t>
   </si>
 </sst>
 </file>
@@ -714,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1431,21 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
@@ -1436,113 +1454,103 @@
       <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56"/>
@@ -1566,61 +1574,89 @@
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+      <c r="A59"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C64" s="2">
         <f>SUM(C5:C37)</f>
         <v>33</v>
       </c>
-      <c r="D60" s="2">
-        <f>C60</f>
+      <c r="D64" s="2">
+        <f>C64</f>
         <v>33</v>
       </c>
-      <c r="E60" s="2">
-        <f>C60</f>
+      <c r="E64" s="2">
+        <f>C64</f>
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <f>(SUM(C5:C37)+SUM(C48:C51))</f>
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <f>(SUM(C5:C37)+SUM(C52:C55))</f>
+        <v>37</v>
+      </c>
+      <c r="D65" s="2">
+        <f>(SUM(D5:D37)+SUM(D52:D55))</f>
         <v>36</v>
       </c>
-      <c r="D61" s="2">
-        <f>(SUM(D5:D37)+SUM(D48:D51))</f>
-        <v>35</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" ref="E61" si="0">(SUM(E5:E37)+SUM(E48:E51))</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="5" t="s">
+      <c r="E65" s="2">
+        <f t="shared" ref="E65" si="0">(SUM(E5:E37)+SUM(E52:E55))</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="6">
-        <f>C61/C60</f>
+      <c r="C66" s="6">
+        <f>C65/C64</f>
+        <v>1.1212121212121211</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" ref="D66:E66" si="1">D65/D64</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="D62" s="6">
-        <f t="shared" ref="D62:E62" si="1">D61/D60</f>
-        <v>1.0606060606060606</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="E66" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0303030303030303</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D2A83-200B-4CE5-A80C-BF3027499522}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF98DCA5-0B09-40E9-8A9B-F514C5120836}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43500</v>
+        <v>43521</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF98DCA5-0B09-40E9-8A9B-F514C5120836}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA19A6F-9191-4369-A2E4-A677C3C4B90D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2625" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16875" yWindow="810" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -233,6 +232,21 @@
   </si>
   <si>
     <t>Monday, February, 25, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, February, 27, 2019</t>
+  </si>
+  <si>
+    <t>Monday, March 4, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, March 6, 2019</t>
+  </si>
+  <si>
+    <t>Audio Pass through</t>
+  </si>
+  <si>
+    <t>Sunday, March 10, 2019</t>
   </si>
 </sst>
 </file>
@@ -349,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -377,9 +391,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +755,7 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43521</v>
+        <v>43530</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1448,16 +1459,72 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
@@ -1466,64 +1533,36 @@
       <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -1532,43 +1571,67 @@
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58" s="10"/>
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1576,86 +1639,65 @@
     <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59" s="10"/>
-      <c r="C59" s="15"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C61" s="2">
         <f>SUM(C5:C37)</f>
         <v>33</v>
       </c>
-      <c r="D64" s="2">
-        <f>C64</f>
+      <c r="D61" s="2">
+        <f>C61</f>
         <v>33</v>
       </c>
-      <c r="E64" s="2">
-        <f>C64</f>
+      <c r="E61" s="2">
+        <f>C61</f>
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <f>(SUM(C5:C37)+SUM(C52:C55))</f>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <f>(SUM(C5:C37)+SUM(C54:C57))</f>
         <v>37</v>
       </c>
-      <c r="D65" s="2">
-        <f>(SUM(D5:D37)+SUM(D52:D55))</f>
+      <c r="D62" s="2">
+        <f>(SUM(D5:D37)+SUM(D54:D57))</f>
         <v>36</v>
       </c>
-      <c r="E65" s="2">
-        <f t="shared" ref="E65" si="0">(SUM(E5:E37)+SUM(E52:E55))</f>
+      <c r="E62" s="2">
+        <f>(SUM(E5:E37)+SUM(E54:E57))</f>
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="5" t="s">
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="6">
-        <f>C65/C64</f>
+      <c r="C63" s="6">
+        <f>C62/C61</f>
         <v>1.1212121212121211</v>
       </c>
-      <c r="D66" s="6">
-        <f t="shared" ref="D66:E66" si="1">D65/D64</f>
+      <c r="D63" s="6">
+        <f t="shared" ref="D63:E63" si="0">D62/D61</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="E66" s="6">
-        <f t="shared" si="1"/>
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
         <v>1.0303030303030303</v>
       </c>
     </row>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA19A6F-9191-4369-A2E4-A677C3C4B90D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946CAE6-AD6E-472B-9FD1-B937C9A0979C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="810" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -247,6 +248,24 @@
   </si>
   <si>
     <t>Sunday, March 10, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, March 11, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, March 13, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, March 25, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, March 27, 2019</t>
+  </si>
+  <si>
+    <t>Recevie testing</t>
+  </si>
+  <si>
+    <t>Sunday, March 30, 2019</t>
   </si>
 </sst>
 </file>
@@ -729,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +774,7 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43530</v>
+        <v>43551</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1527,176 +1546,298 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C67" s="2">
         <f>SUM(C5:C37)</f>
         <v>33</v>
       </c>
-      <c r="D61" s="2">
-        <f>C61</f>
+      <c r="D67" s="2">
+        <f>C67</f>
         <v>33</v>
       </c>
-      <c r="E61" s="2">
-        <f>C61</f>
+      <c r="E67" s="2">
+        <f>C67</f>
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2">
-        <f>(SUM(C5:C37)+SUM(C54:C57))</f>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <f>(SUM(C5:C37)+SUM(C59:C62))</f>
         <v>37</v>
       </c>
-      <c r="D62" s="2">
-        <f>(SUM(D5:D37)+SUM(D54:D57))</f>
+      <c r="D68" s="2">
+        <f>(SUM(D5:D37)+SUM(D59:D62))</f>
         <v>36</v>
       </c>
-      <c r="E62" s="2">
-        <f>(SUM(E5:E37)+SUM(E54:E57))</f>
+      <c r="E68" s="2">
+        <f>(SUM(E5:E37)+SUM(E59:E62))</f>
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="5" t="s">
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="6">
-        <f>C62/C61</f>
+      <c r="C69" s="6">
+        <f>C68/C67</f>
         <v>1.1212121212121211</v>
       </c>
-      <c r="D63" s="6">
-        <f t="shared" ref="D63:E63" si="0">D62/D61</f>
+      <c r="D69" s="6">
+        <f t="shared" ref="D69:E69" si="0">D68/D67</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E69" s="6">
         <f t="shared" si="0"/>
         <v>1.0303030303030303</v>
       </c>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946CAE6-AD6E-472B-9FD1-B937C9A0979C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD64DACC-0AC1-4CAC-90C1-D20B0F6085F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="75">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -266,6 +266,30 @@
   </si>
   <si>
     <t>Sunday, March 30, 2019</t>
+  </si>
+  <si>
+    <t>Monday, April 1, 2019</t>
+  </si>
+  <si>
+    <t>Sunday, March 31, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, April 3, 2019</t>
+  </si>
+  <si>
+    <t>Monday, April 8, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, April 10, 2019</t>
+  </si>
+  <si>
+    <t>Estimated Hours In project</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>In days</t>
   </si>
 </sst>
 </file>
@@ -276,7 +300,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,16 +357,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -378,11 +415,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -410,8 +463,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -748,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +840,7 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43551</v>
+        <v>43566</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1648,201 +1714,391 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="2">
-        <f>SUM(C5:C37)</f>
-        <v>33</v>
-      </c>
-      <c r="D67" s="2">
-        <f>C67</f>
-        <v>33</v>
-      </c>
-      <c r="E67" s="2">
-        <f>C67</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2">
-        <f>(SUM(C5:C37)+SUM(C59:C62))</f>
-        <v>37</v>
-      </c>
-      <c r="D68" s="2">
-        <f>(SUM(D5:D37)+SUM(D59:D62))</f>
-        <v>36</v>
-      </c>
-      <c r="E68" s="2">
-        <f>(SUM(E5:E37)+SUM(E59:E62))</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="5" t="s">
+      <c r="C79" s="2">
+        <f>SUM(C5:C68)</f>
+        <v>55</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" ref="D79:E79" si="0">SUM(D5:D68)</f>
+        <v>54</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <f>(C79+SUM(C71:C78))</f>
+        <v>62</v>
+      </c>
+      <c r="D80" s="2">
+        <f>(D79+SUM(D71:D78))</f>
+        <v>61</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" ref="E80" si="1">(E79+SUM(E71:E78))</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="6">
-        <f>C68/C67</f>
-        <v>1.1212121212121211</v>
-      </c>
-      <c r="D69" s="6">
-        <f t="shared" ref="D69:E69" si="0">D68/D67</f>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="E69" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0303030303030303</v>
+      <c r="C81" s="6">
+        <f>C80/C79</f>
+        <v>1.1272727272727272</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" ref="D81:E81" si="2">D80/D79</f>
+        <v>1.1296296296296295</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0925925925925926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="str">
+        <f>C4</f>
+        <v>James Bell</v>
+      </c>
+      <c r="C84" s="2">
+        <f>(C79*4)+(C80*6)</f>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
+        <f>D4</f>
+        <v>Samual Hussey</v>
+      </c>
+      <c r="C85" s="2">
+        <f>(D79*4)+(D80*6)</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="str">
+        <f>E4</f>
+        <v>Zachary Schneiderman</v>
+      </c>
+      <c r="C86" s="2">
+        <f>(E79*4)+(E80*6)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="17">
+        <f>C84+C85+C86</f>
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="17">
+        <f>ROUND(C87/24,2)</f>
+        <v>72.67</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A83:E83"/>
+  </mergeCells>
   <pageMargins left="1.2" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD64DACC-0AC1-4CAC-90C1-D20B0F6085F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4257B32-762D-4E55-B8F8-628BB0C4822C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>In days</t>
+  </si>
+  <si>
+    <t>Monday, April 15,2019</t>
+  </si>
+  <si>
+    <t>Wednesday, April 17, 2019</t>
   </si>
 </sst>
 </file>
@@ -463,9 +469,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,10 +1822,38 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
@@ -1831,42 +1865,98 @@
       <c r="B64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -1875,15 +1965,15 @@
         <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -1892,15 +1982,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -1913,191 +2003,123 @@
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>60</v>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
+        <f>SUM(C5:C64)</f>
+        <v>57</v>
       </c>
       <c r="D75" s="2">
-        <v>1</v>
+        <f>SUM(D5:D64)</f>
+        <v>56</v>
       </c>
       <c r="E75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>66</v>
+        <f>SUM(E5:E64)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C76" s="2">
-        <v>1</v>
+        <f>(C75+SUM(C67:C74))</f>
+        <v>64</v>
       </c>
       <c r="D76" s="2">
-        <v>1</v>
+        <f>(D75+SUM(D67:D74))</f>
+        <v>63</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-    </row>
-    <row r="79" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
-        <f>SUM(C5:C68)</f>
-        <v>55</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" ref="D79:E79" si="0">SUM(D5:D68)</f>
-        <v>54</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2">
-        <f>(C79+SUM(C71:C78))</f>
-        <v>62</v>
-      </c>
-      <c r="D80" s="2">
-        <f>(D79+SUM(D71:D78))</f>
+        <f t="shared" ref="E76" si="0">(E75+SUM(E67:E74))</f>
         <v>61</v>
       </c>
-      <c r="E80" s="2">
-        <f t="shared" ref="E80" si="1">(E79+SUM(E71:E78))</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="5" t="s">
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="6">
-        <f>C80/C79</f>
-        <v>1.1272727272727272</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" ref="D81:E81" si="2">D80/D79</f>
-        <v>1.1296296296296295</v>
-      </c>
-      <c r="E81" s="6">
-        <f t="shared" si="2"/>
-        <v>1.0925925925925926</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="C77" s="6">
+        <f>C76/C75</f>
+        <v>1.1228070175438596</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" ref="D77:E77" si="1">D76/D75</f>
+        <v>1.125</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0892857142857142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84" t="str">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
         <f>C4</f>
         <v>James Bell</v>
       </c>
-      <c r="C84" s="2">
-        <f>(C79*4)+(C80*6)</f>
-        <v>592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="str">
+      <c r="C80" s="2">
+        <f>(C75*4)+(C76*6)</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="str">
         <f>D4</f>
         <v>Samual Hussey</v>
       </c>
-      <c r="C85" s="2">
-        <f>(D79*4)+(D80*6)</f>
-        <v>582</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="str">
+      <c r="C81" s="2">
+        <f>(D75*4)+(D76*6)</f>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
         <f>E4</f>
         <v>Zachary Schneiderman</v>
       </c>
-      <c r="C86" s="2">
-        <f>(E79*4)+(E80*6)</f>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="16" t="s">
+      <c r="C82" s="2">
+        <f>(E75*4)+(E76*6)</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="17">
-        <f>C84+C85+C86</f>
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+      <c r="C83" s="16">
+        <f>C80+C81+C82</f>
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="17">
-        <f>ROUND(C87/24,2)</f>
-        <v>72.67</v>
+      <c r="C84" s="16">
+        <f>ROUND(C83/24,2)</f>
+        <v>75.17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A79:E79"/>
   </mergeCells>
   <pageMargins left="1.2" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4257B32-762D-4E55-B8F8-628BB0C4822C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB282F-CE81-4D53-AA0B-ECE9406A7E8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Monday, April 1, 2019</t>
   </si>
   <si>
-    <t>Sunday, March 31, 2019</t>
-  </si>
-  <si>
     <t>Wednesday, April 3, 2019</t>
   </si>
   <si>
@@ -296,6 +293,21 @@
   </si>
   <si>
     <t>Wednesday, April 17, 2019</t>
+  </si>
+  <si>
+    <t>Transmit Implementation</t>
+  </si>
+  <si>
+    <t>Sunday, April 13, 2019</t>
+  </si>
+  <si>
+    <t>Sunday, April 27, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, April 22, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, April 24, 2019</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -464,7 +476,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,6 +490,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -820,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +864,7 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43566</v>
+        <v>43579</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -870,7 +888,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1741,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -1758,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1775,7 +1793,7 @@
         <v>45</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1792,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -1809,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1826,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1843,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1856,73 +1874,87 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1</v>
+      </c>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>26</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -1931,15 +1963,15 @@
         <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -1948,15 +1980,15 @@
         <v>1</v>
       </c>
       <c r="E70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -1970,10 +2002,10 @@
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -1987,139 +2019,191 @@
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+      <c r="B74" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="2">
-        <f>SUM(C5:C64)</f>
-        <v>57</v>
-      </c>
-      <c r="D75" s="2">
-        <f>SUM(D5:D64)</f>
-        <v>56</v>
-      </c>
-      <c r="E75" s="2">
-        <f>SUM(E5:E64)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2">
-        <f>(C75+SUM(C67:C74))</f>
+      <c r="C79" s="2">
+        <f>SUM(C5:C66)</f>
+        <v>60</v>
+      </c>
+      <c r="D79" s="2">
+        <f>SUM(D5:D66)</f>
+        <v>59</v>
+      </c>
+      <c r="E79" s="2">
+        <f>SUM(E5:E66)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <f>(C79+SUM(C69:C76))</f>
+        <v>67</v>
+      </c>
+      <c r="D80" s="2">
+        <f>(D79+SUM(D69:D76))</f>
+        <v>66</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" ref="E80" si="0">(E79+SUM(E69:E76))</f>
         <v>64</v>
       </c>
-      <c r="D76" s="2">
-        <f>(D75+SUM(D67:D74))</f>
-        <v>63</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" ref="E76" si="0">(E75+SUM(E67:E74))</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="5" t="s">
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="6">
-        <f>C76/C75</f>
-        <v>1.1228070175438596</v>
-      </c>
-      <c r="D77" s="6">
-        <f t="shared" ref="D77:E77" si="1">D76/D75</f>
-        <v>1.125</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="C81" s="6">
+        <f>C80/C79</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" ref="D81:E81" si="1">D80/D79</f>
+        <v>1.1186440677966101</v>
+      </c>
+      <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>1.0892857142857142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" t="str">
+        <v>1.0847457627118644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="str">
         <f>C4</f>
         <v>James Bell</v>
       </c>
-      <c r="C80" s="2">
-        <f>(C75*4)+(C76*6)</f>
-        <v>612</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="str">
+      <c r="C84" s="2">
+        <f>(C79*4)+(C80*6)</f>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
         <f>D4</f>
         <v>Samual Hussey</v>
       </c>
-      <c r="C81" s="2">
-        <f>(D75*4)+(D76*6)</f>
-        <v>602</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="str">
+      <c r="C85" s="2">
+        <f>(D79*4)+(D80*6)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="str">
         <f>E4</f>
         <v>Zachary Schneiderman</v>
       </c>
-      <c r="C82" s="2">
-        <f>(E75*4)+(E76*6)</f>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
+      <c r="C86" s="2">
+        <f>(E79*4)+(E80*6)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="15">
+        <f>C84+C85+C86</f>
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="16">
-        <f>C80+C81+C82</f>
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="16">
-        <f>ROUND(C83/24,2)</f>
-        <v>75.17</v>
+      <c r="C88" s="15">
+        <f>ROUND(C87/24,2)</f>
+        <v>78.92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A83:E83"/>
   </mergeCells>
   <pageMargins left="1.2" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB282\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB282F-CE81-4D53-AA0B-ECE9406A7E8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181B6B4-069A-4941-B34A-B381DF172D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t>Total Planned Meetings Conducted</t>
   </si>
@@ -301,13 +301,22 @@
     <t>Sunday, April 13, 2019</t>
   </si>
   <si>
-    <t>Sunday, April 27, 2019</t>
-  </si>
-  <si>
     <t>Wednesday, April 22, 2019</t>
   </si>
   <si>
     <t>Wednesday, April 24, 2019</t>
+  </si>
+  <si>
+    <t>Monday, April 29, 2019</t>
+  </si>
+  <si>
+    <t>Wednesday, May 1, 2019</t>
+  </si>
+  <si>
+    <t>Sunday, April 28, 2019</t>
+  </si>
+  <si>
+    <t>Sunday, May 5, 2019</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,7 +480,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -497,6 +505,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -838,15 +853,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
@@ -855,16 +870,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>43579</v>
+      <c r="A2" s="7">
+        <v>43586</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -873,7 +889,7 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3"/>
@@ -888,7 +904,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -908,7 +924,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2">
@@ -925,7 +941,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2">
@@ -942,7 +958,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="2">
@@ -959,7 +975,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
@@ -976,7 +992,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2">
@@ -993,7 +1009,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2">
@@ -1010,7 +1026,7 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
@@ -1027,7 +1043,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2">
@@ -1044,7 +1060,7 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2">
@@ -1061,7 +1077,7 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
@@ -1078,7 +1094,7 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
@@ -1095,7 +1111,7 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2">
@@ -1112,7 +1128,7 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
@@ -1129,7 +1145,7 @@
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2">
@@ -1146,7 +1162,7 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2">
@@ -1163,7 +1179,7 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
@@ -1180,7 +1196,7 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2">
@@ -1197,7 +1213,7 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2">
@@ -1214,7 +1230,7 @@
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -1231,7 +1247,7 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2">
@@ -1248,7 +1264,7 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="2">
@@ -1265,7 +1281,7 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2">
@@ -1282,7 +1298,7 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="2">
@@ -1299,7 +1315,7 @@
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="2">
@@ -1316,7 +1332,7 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="2">
@@ -1333,7 +1349,7 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="2">
@@ -1350,7 +1366,7 @@
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="2">
@@ -1367,7 +1383,7 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="2">
@@ -1384,7 +1400,7 @@
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2">
@@ -1401,7 +1417,7 @@
       <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="2">
@@ -1418,7 +1434,7 @@
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="2">
@@ -1435,7 +1451,7 @@
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="2">
@@ -1452,7 +1468,7 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="2">
@@ -1469,7 +1485,7 @@
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="2">
@@ -1486,7 +1502,7 @@
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="2">
@@ -1503,7 +1519,7 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="2">
@@ -1520,7 +1536,7 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="2">
@@ -1537,7 +1553,7 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="2">
@@ -1554,7 +1570,7 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="2">
@@ -1571,7 +1587,7 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="2">
@@ -1588,7 +1604,7 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="2">
@@ -1605,7 +1621,7 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="2">
@@ -1622,7 +1638,7 @@
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="2">
@@ -1639,7 +1655,7 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="2">
@@ -1656,7 +1672,7 @@
       <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2">
@@ -1673,7 +1689,7 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="2">
@@ -1690,7 +1706,7 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="2">
@@ -1707,7 +1723,7 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="2">
@@ -1724,7 +1740,7 @@
       <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="2">
@@ -1741,7 +1757,7 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="2">
@@ -1758,7 +1774,7 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="2">
@@ -1775,7 +1791,7 @@
       <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="2">
@@ -1792,7 +1808,7 @@
       <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="2">
@@ -1809,7 +1825,7 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="2">
@@ -1826,7 +1842,7 @@
       <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="2">
@@ -1843,7 +1859,7 @@
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="2">
@@ -1860,7 +1876,7 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="2">
@@ -1877,16 +1893,16 @@
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="17">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17">
-        <v>1</v>
-      </c>
-      <c r="E62" s="17">
+      <c r="B62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1894,16 +1910,16 @@
       <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="17">
-        <v>1</v>
-      </c>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" s="17">
+      <c r="B63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1911,101 +1927,101 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="16">
+        <v>1</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1</v>
+      </c>
+      <c r="E64" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="17">
-        <v>1</v>
-      </c>
-      <c r="D64" s="17">
-        <v>1</v>
-      </c>
-      <c r="E64" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <v>1</v>
+      </c>
+      <c r="E65" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="17">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -2014,15 +2030,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -2031,15 +2047,15 @@
         <v>1</v>
       </c>
       <c r="E73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -2053,157 +2069,219 @@
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B77" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-    </row>
-    <row r="78" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="2">
-        <f>SUM(C5:C66)</f>
-        <v>60</v>
-      </c>
-      <c r="D79" s="2">
-        <f>SUM(D5:D66)</f>
-        <v>59</v>
-      </c>
-      <c r="E79" s="2">
-        <f>SUM(E5:E66)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2">
-        <f>(C79+SUM(C69:C76))</f>
-        <v>67</v>
-      </c>
-      <c r="D80" s="2">
-        <f>(D79+SUM(D69:D76))</f>
-        <v>66</v>
-      </c>
-      <c r="E80" s="2">
-        <f t="shared" ref="E80" si="0">(E79+SUM(E69:E76))</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="5" t="s">
+      <c r="C82" s="2">
+        <f>SUM(C5:C69)</f>
+        <v>63</v>
+      </c>
+      <c r="D82" s="2">
+        <f>SUM(D5:D69)</f>
+        <v>62</v>
+      </c>
+      <c r="E82" s="2">
+        <f>SUM(E5:E69)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <f>(C82+SUM(C72:C79))</f>
+        <v>71</v>
+      </c>
+      <c r="D83" s="2">
+        <f>(D82+SUM(D72:D79))</f>
+        <v>70</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" ref="E83" si="0">(E82+SUM(E72:E79))</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="6">
-        <f>C80/C79</f>
-        <v>1.1166666666666667</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" ref="D81:E81" si="1">D80/D79</f>
-        <v>1.1186440677966101</v>
-      </c>
-      <c r="E81" s="6">
+      <c r="C84" s="6">
+        <f>C83/C82</f>
+        <v>1.126984126984127</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" ref="D84:E84" si="1">D83/D82</f>
+        <v>1.1290322580645162</v>
+      </c>
+      <c r="E84" s="6">
         <f t="shared" si="1"/>
-        <v>1.0847457627118644</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+        <v>1.096774193548387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84" t="str">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="str">
         <f>C4</f>
         <v>James Bell</v>
       </c>
-      <c r="C84" s="2">
-        <f>(C79*4)+(C80*6)</f>
-        <v>642</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="str">
+      <c r="C87" s="2">
+        <f>(C82*4)+(C83*6)</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="str">
         <f>D4</f>
         <v>Samual Hussey</v>
       </c>
-      <c r="C85" s="2">
-        <f>(D79*4)+(D80*6)</f>
-        <v>632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="str">
+      <c r="C88" s="2">
+        <f>(D82*4)+(D83*6)</f>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="str">
         <f>E4</f>
         <v>Zachary Schneiderman</v>
       </c>
-      <c r="C86" s="2">
-        <f>(E79*4)+(E80*6)</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="14" t="s">
+      <c r="C89" s="2">
+        <f>(E82*4)+(E83*6)</f>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="15">
-        <f>C84+C85+C86</f>
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="16" t="s">
+      <c r="C90" s="14">
+        <f>C87+C88+C89</f>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="15">
-        <f>ROUND(C87/24,2)</f>
-        <v>78.92</v>
+      <c r="C91" s="14">
+        <f>ROUND(C90/24,2)</f>
+        <v>83.42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A83:E83"/>
+  <mergeCells count="2">
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1.2" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
+++ b/docs/Team Meeting Attendance Form _Software Defined Radio_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Senior design day binder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181B6B4-069A-4941-B34A-B381DF172D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1229CD4-FDDA-484D-92B8-DE072D747A52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>1.12 Official Project Name Team Attendance Form</t>
-  </si>
-  <si>
     <t>James Bell</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>Sunday, May 5, 2019</t>
+  </si>
+  <si>
+    <t>2.12 Official Project Name Team Attendance Form</t>
   </si>
 </sst>
 </file>
@@ -507,10 +507,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -911,13 +911,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="16">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="16">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="17">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="17">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="17">
         <v>1</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2137,27 +2137,27 @@
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="11">
-        <v>1</v>
-      </c>
-      <c r="E79" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
@@ -2222,13 +2222,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="A86" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" t="str">
@@ -2262,7 +2262,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="14">
         <f>C87+C88+C89</f>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91" s="14">
         <f>ROUND(C90/24,2)</f>
